--- a/Mineral/Data/Data/非均质.xlsx
+++ b/Mineral/Data/Data/非均质.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="44">
   <si>
     <t>矿物中文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,38 @@
   </si>
   <si>
     <t>维氏硬度为，刻划硬度低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉锑矿2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉锑矿3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉锑矿4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉锑矿5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的萨达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大叔大婶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大叔大的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉锑大叔大矿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -651,6 +683,454 @@
         <v>33</v>
       </c>
     </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mineral/Data/Data/非均质.xlsx
+++ b/Mineral/Data/Data/非均质.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="非均质矿物" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="45">
   <si>
     <t>矿物中文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,14 +181,18 @@
   </si>
   <si>
     <t>辉锑大叔大矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉锑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +257,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -300,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,9 +339,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,6 +374,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,37 +550,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="25.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="24.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.375" style="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="45.77734375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="24.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="45.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24.125" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -683,7 +692,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -739,7 +748,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -795,7 +804,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
@@ -851,7 +860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -907,7 +916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -963,7 +972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -1019,7 +1028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
@@ -1075,7 +1084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1">
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -1128,6 +1137,62 @@
         <v>34</v>
       </c>
       <c r="R10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="54" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
